--- a/REGULAR/TICC/NAVARRO, RITA.xlsx
+++ b/REGULAR/TICC/NAVARRO, RITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\TICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2624784-BEB1-430A-BADD-94CA7B103599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
   <si>
     <t>PERIOD</t>
   </si>
@@ -505,7 +504,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1393,7 +1392,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1435,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1499,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1559,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1625,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1688,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1786,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1845,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1910,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1953,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2028,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2214,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2280,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2338,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2404,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2460,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2535,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2578,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2644,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2700,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2798,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2861,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2910,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2928,25 +2927,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K399" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K399" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2958,13 +2957,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2973,14 +2972,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3284,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3294,7 +3293,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3302,34 +3301,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A325" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A325" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomLeft" activeCell="K333" sqref="K333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3349,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3370,7 +3369,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3391,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3400,7 +3399,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3413,7 +3412,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3430,7 +3429,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3474,7 +3473,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.99399999999997</v>
+        <v>113.24399999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3484,12 +3483,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.125</v>
+        <v>245.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37880</v>
       </c>
@@ -3531,7 +3530,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37895</v>
       </c>
@@ -3551,7 +3550,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>37926</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>37956</v>
       </c>
@@ -3591,7 +3590,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3609,7 +3608,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>37987</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>38018</v>
@@ -3650,7 +3649,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" ref="A18:A27" si="0">EDATE(A17,1)</f>
         <v>38047</v>
@@ -3671,7 +3670,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>38078</v>
@@ -3692,7 +3691,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -3713,7 +3712,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -3734,7 +3733,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -3755,7 +3754,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>38200</v>
@@ -3776,7 +3775,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -3797,7 +3796,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3818,7 +3817,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -3839,7 +3838,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -3864,7 +3863,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3882,7 +3881,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38353</v>
       </c>
@@ -3902,7 +3901,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>38384</v>
@@ -3923,7 +3922,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A41" si="1">EDATE(A30,1)</f>
         <v>38412</v>
@@ -3944,7 +3943,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -3965,7 +3964,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -3986,7 +3985,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -4007,7 +4006,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -4028,7 +4027,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -4053,7 +4052,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -4078,7 +4077,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -4101,7 +4100,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4123,7 +4122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>38657</v>
@@ -4144,7 +4143,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -4165,7 +4164,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>52</v>
       </c>
@@ -4183,7 +4182,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>38718</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4223,7 +4222,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>38749</v>
@@ -4244,7 +4243,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" ref="A46:A55" si="2">EDATE(A45,1)</f>
         <v>38777</v>
@@ -4265,7 +4264,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -4286,7 +4285,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -4307,7 +4306,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -4328,7 +4327,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -4349,7 +4348,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -4370,7 +4369,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -4395,7 +4394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4413,7 +4412,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>38991</v>
@@ -4434,7 +4433,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -4455,7 +4454,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>39052</v>
@@ -4480,7 +4479,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>57</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>39083</v>
       </c>
@@ -4518,7 +4517,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>39114</v>
@@ -4539,7 +4538,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A69" si="3">EDATE(A59,1)</f>
         <v>39142</v>
@@ -4560,7 +4559,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>39173</v>
@@ -4581,7 +4580,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>39203</v>
@@ -4606,7 +4605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4624,7 +4623,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>39234</v>
@@ -4645,7 +4644,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39264</v>
@@ -4666,7 +4665,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -4687,7 +4686,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -4708,7 +4707,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>39356</v>
@@ -4729,7 +4728,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -4750,7 +4749,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A69,1)</f>
         <v>39417</v>
@@ -4773,7 +4772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>46</v>
@@ -4795,7 +4794,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>58</v>
       </c>
@@ -4813,7 +4812,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39448</v>
       </c>
@@ -4833,7 +4832,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>39479</v>
@@ -4854,7 +4853,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" ref="A75:A85" si="4">EDATE(A74,1)</f>
         <v>39508</v>
@@ -4875,7 +4874,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>39539</v>
@@ -4896,7 +4895,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>39569</v>
@@ -4917,7 +4916,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>39600</v>
@@ -4938,7 +4937,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39630</v>
@@ -4959,7 +4958,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39661</v>
@@ -4980,7 +4979,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39692</v>
@@ -5005,7 +5004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5023,7 +5022,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39722</v>
@@ -5044,7 +5043,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A83,1)</f>
         <v>39753</v>
@@ -5065,7 +5064,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>39783</v>
@@ -5086,7 +5085,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>64</v>
       </c>
@@ -5104,7 +5103,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>39814</v>
       </c>
@@ -5124,7 +5123,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A87,1)</f>
         <v>39845</v>
@@ -5149,7 +5148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -5167,7 +5166,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>39873</v>
@@ -5188,7 +5187,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A104" si="5">EDATE(A90,1)</f>
         <v>39904</v>
@@ -5209,7 +5208,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39934</v>
@@ -5230,7 +5229,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39965</v>
@@ -5253,7 +5252,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>67</v>
@@ -5273,7 +5272,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5291,7 +5290,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A93,1)</f>
         <v>39995</v>
@@ -5316,7 +5315,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>68</v>
@@ -5338,7 +5337,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A96,1)</f>
         <v>40026</v>
@@ -5363,7 +5362,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>69</v>
@@ -5385,7 +5384,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>40057</v>
@@ -5410,7 +5409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>67</v>
@@ -5432,7 +5431,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
@@ -5450,7 +5449,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>40087</v>
@@ -5471,7 +5470,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>40118</v>
@@ -5492,7 +5491,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A104,1)</f>
         <v>40148</v>
@@ -5517,7 +5516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>74</v>
@@ -5539,7 +5538,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>75</v>
       </c>
@@ -5557,7 +5556,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>40179</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>76</v>
@@ -5599,7 +5598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>78</v>
@@ -5621,7 +5620,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A108,1)</f>
         <v>40210</v>
@@ -5646,7 +5645,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>79</v>
@@ -5668,7 +5667,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>40238</v>
@@ -5693,7 +5692,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5711,7 +5710,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40269</v>
@@ -5736,7 +5735,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" ref="A116:A122" si="6">EDATE(A115,1)</f>
         <v>40299</v>
@@ -5763,7 +5762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -5784,7 +5783,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>40360</v>
@@ -5805,7 +5804,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -5830,7 +5829,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -5851,7 +5850,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -5872,7 +5871,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -5893,7 +5892,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>40513</v>
@@ -5914,7 +5913,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>84</v>
       </c>
@@ -5932,7 +5931,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40544</v>
       </c>
@@ -5952,7 +5951,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A125,1)</f>
         <v>40575</v>
@@ -5977,7 +5976,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" ref="A127:A137" si="7">EDATE(A126,1)</f>
         <v>40603</v>
@@ -6002,7 +6001,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>40634</v>
@@ -6023,7 +6022,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40664</v>
@@ -6044,7 +6043,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>40695</v>
@@ -6065,7 +6064,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>40725</v>
@@ -6086,7 +6085,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A131,1)</f>
         <v>40756</v>
@@ -6107,7 +6106,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40787</v>
@@ -6128,7 +6127,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>40817</v>
@@ -6151,7 +6150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6169,7 +6168,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>40848</v>
@@ -6190,7 +6189,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>40878</v>
@@ -6215,7 +6214,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>66</v>
@@ -6235,7 +6234,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>138</v>
@@ -6255,7 +6254,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>87</v>
       </c>
@@ -6273,7 +6272,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40909</v>
       </c>
@@ -6295,7 +6294,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6313,7 +6312,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>40940</v>
@@ -6334,7 +6333,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A155" si="8">EDATE(A143,1)</f>
         <v>40969</v>
@@ -6359,7 +6358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6377,7 +6376,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>41000</v>
@@ -6398,7 +6397,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -6419,7 +6418,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>41061</v>
@@ -6440,7 +6439,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -6461,7 +6460,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="8"/>
         <v>41122</v>
@@ -6486,7 +6485,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -6511,7 +6510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6529,7 +6528,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>41183</v>
@@ -6550,7 +6549,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="8"/>
         <v>41214</v>
@@ -6571,7 +6570,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="8"/>
         <v>41244</v>
@@ -6596,7 +6595,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>96</v>
       </c>
@@ -6614,7 +6613,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>41275</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -6654,7 +6653,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>41306</v>
@@ -6675,7 +6674,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" ref="A160:A168" si="9">EDATE(A159,1)</f>
         <v>41334</v>
@@ -6696,7 +6695,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>41365</v>
@@ -6717,7 +6716,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="9"/>
         <v>41395</v>
@@ -6738,7 +6737,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="9"/>
         <v>41426</v>
@@ -6759,7 +6758,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="9"/>
         <v>41456</v>
@@ -6784,7 +6783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6802,7 +6801,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>41487</v>
@@ -6823,7 +6822,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>41518</v>
@@ -6844,7 +6843,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>41548</v>
@@ -6869,7 +6868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>66</v>
@@ -6887,7 +6886,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6905,7 +6904,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A168,1)</f>
         <v>41579</v>
@@ -6926,7 +6925,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>41609</v>
@@ -6951,7 +6950,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="54" t="s">
         <v>97</v>
       </c>
@@ -6969,7 +6968,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41640</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7011,7 +7010,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>41671</v>
@@ -7036,7 +7035,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" ref="A177:A187" si="10">EDATE(A176,1)</f>
         <v>41699</v>
@@ -7063,7 +7062,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -7084,7 +7083,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -7105,7 +7104,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -7126,7 +7125,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -7147,7 +7146,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -7168,7 +7167,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -7191,7 +7190,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -7209,7 +7208,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>41913</v>
@@ -7230,7 +7229,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A185,1)</f>
         <v>41944</v>
@@ -7251,7 +7250,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -7278,7 +7277,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>102</v>
       </c>
@@ -7296,7 +7295,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>42005</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A189,1)</f>
         <v>42036</v>
@@ -7343,7 +7342,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" ref="A191:A200" si="11">EDATE(A190,1)</f>
         <v>42064</v>
@@ -7364,7 +7363,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="11"/>
         <v>42095</v>
@@ -7385,7 +7384,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="11"/>
         <v>42125</v>
@@ -7406,7 +7405,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="11"/>
         <v>42156</v>
@@ -7427,7 +7426,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="11"/>
         <v>42186</v>
@@ -7448,7 +7447,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>42217</v>
@@ -7473,7 +7472,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7491,7 +7490,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>42248</v>
@@ -7512,7 +7511,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>42278</v>
@@ -7539,7 +7538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>42309</v>
@@ -7560,7 +7559,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>42339</v>
@@ -7581,7 +7580,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="48" t="s">
         <v>103</v>
       </c>
@@ -7599,7 +7598,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>42370</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>42401</v>
@@ -7646,7 +7645,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A214" si="12">EDATE(A204,1)</f>
         <v>42430</v>
@@ -7667,7 +7666,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="12"/>
         <v>42461</v>
@@ -7688,7 +7687,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>42491</v>
@@ -7709,7 +7708,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="12"/>
         <v>42522</v>
@@ -7736,7 +7735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="12"/>
         <v>42552</v>
@@ -7757,7 +7756,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="12"/>
         <v>42583</v>
@@ -7778,7 +7777,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="12"/>
         <v>42614</v>
@@ -7799,7 +7798,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="12"/>
         <v>42644</v>
@@ -7820,7 +7819,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="12"/>
         <v>42675</v>
@@ -7841,7 +7840,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="12"/>
         <v>42705</v>
@@ -7868,7 +7867,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>104</v>
       </c>
@@ -7886,7 +7885,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42736</v>
       </c>
@@ -7910,7 +7909,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42767</v>
@@ -7931,7 +7930,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A229" si="13">EDATE(A217,1)</f>
         <v>42795</v>
@@ -7952,7 +7951,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="13"/>
         <v>42826</v>
@@ -7973,7 +7972,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="13"/>
         <v>42856</v>
@@ -7994,7 +7993,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="13"/>
         <v>42887</v>
@@ -8015,7 +8014,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="13"/>
         <v>42917</v>
@@ -8036,7 +8035,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>42948</v>
@@ -8057,7 +8056,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="13"/>
         <v>42979</v>
@@ -8082,7 +8081,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13">
@@ -8100,7 +8099,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>43009</v>
@@ -8125,7 +8124,7 @@
         <v>11232</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8143,7 +8142,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>43040</v>
@@ -8164,7 +8163,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="13"/>
         <v>43070</v>
@@ -8189,7 +8188,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>115</v>
@@ -8211,7 +8210,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13">
@@ -8229,7 +8228,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>116</v>
       </c>
@@ -8247,7 +8246,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>43101</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>66</v>
@@ -8291,7 +8290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13">
@@ -8309,7 +8308,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41">
         <f>EDATE(A233,1)</f>
         <v>43132</v>
@@ -8330,7 +8329,7 @@
       <c r="J236" s="12"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <f t="shared" ref="A237:A252" si="14">EDATE(A236,1)</f>
         <v>43160</v>
@@ -8355,7 +8354,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>76</v>
@@ -8375,7 +8374,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13">
@@ -8393,7 +8392,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="41">
         <f>EDATE(A237,1)</f>
         <v>43191</v>
@@ -8418,7 +8417,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8436,7 +8435,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <f>EDATE(A240,1)</f>
         <v>43221</v>
@@ -8461,7 +8460,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>120</v>
@@ -8483,7 +8482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8501,7 +8500,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41">
         <f>EDATE(A242,1)</f>
         <v>43252</v>
@@ -8526,7 +8525,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13">
@@ -8544,7 +8543,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41">
         <f>EDATE(A245,1)</f>
         <v>43282</v>
@@ -8565,7 +8564,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41">
         <f t="shared" si="14"/>
         <v>43313</v>
@@ -8586,7 +8585,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="41">
         <f t="shared" si="14"/>
         <v>43344</v>
@@ -8607,7 +8606,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <f t="shared" si="14"/>
         <v>43374</v>
@@ -8628,7 +8627,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41">
         <f t="shared" si="14"/>
         <v>43405</v>
@@ -8649,7 +8648,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <f t="shared" si="14"/>
         <v>43435</v>
@@ -8670,7 +8669,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="54" t="s">
         <v>123</v>
       </c>
@@ -8688,7 +8687,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>43466</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -8730,7 +8729,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>43497</v>
@@ -8751,7 +8750,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" ref="A257:A270" si="15">EDATE(A256,1)</f>
         <v>43525</v>
@@ -8772,7 +8771,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="15"/>
         <v>43556</v>
@@ -8793,7 +8792,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="15"/>
         <v>43586</v>
@@ -8818,7 +8817,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13">
@@ -8836,7 +8835,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>43617</v>
@@ -8859,7 +8858,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>125</v>
@@ -8881,7 +8880,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8899,7 +8898,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>43647</v>
@@ -8920,7 +8919,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="15"/>
         <v>43678</v>
@@ -8941,7 +8940,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43709</v>
@@ -8962,7 +8961,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43739</v>
@@ -8985,7 +8984,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -9003,7 +9002,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f>EDATE(A267,1)</f>
         <v>43770</v>
@@ -9024,7 +9023,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="15"/>
         <v>43800</v>
@@ -9049,7 +9048,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>129</v>
       </c>
@@ -9067,7 +9066,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43831</v>
       </c>
@@ -9087,7 +9086,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A272,1)</f>
         <v>43862</v>
@@ -9110,7 +9109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13">
@@ -9128,7 +9127,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43891</v>
@@ -9149,7 +9148,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" ref="A276:A283" si="16">EDATE(A275,1)</f>
         <v>43922</v>
@@ -9170,7 +9169,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>43952</v>
@@ -9191,7 +9190,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="16"/>
         <v>43983</v>
@@ -9212,7 +9211,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="16"/>
         <v>44013</v>
@@ -9233,7 +9232,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="16"/>
         <v>44044</v>
@@ -9254,7 +9253,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>44075</v>
@@ -9275,7 +9274,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="16"/>
         <v>44105</v>
@@ -9296,7 +9295,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>44136</v>
@@ -9317,7 +9316,7 @@
       <c r="J283" s="12"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A283,1)</f>
         <v>44166</v>
@@ -9342,7 +9341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9360,7 +9359,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="48" t="s">
         <v>133</v>
       </c>
@@ -9378,7 +9377,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44197</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -9418,7 +9417,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>44228</v>
@@ -9441,7 +9440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13">
@@ -9459,7 +9458,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>44256</v>
@@ -9480,7 +9479,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" ref="A292:A300" si="17">EDATE(A291,1)</f>
         <v>44287</v>
@@ -9501,7 +9500,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="17"/>
         <v>44317</v>
@@ -9522,7 +9521,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="17"/>
         <v>44348</v>
@@ -9543,7 +9542,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="17"/>
         <v>44378</v>
@@ -9564,7 +9563,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="17"/>
         <v>44409</v>
@@ -9585,7 +9584,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="17"/>
         <v>44440</v>
@@ -9606,7 +9605,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="17"/>
         <v>44470</v>
@@ -9627,7 +9626,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A298,1)</f>
         <v>44501</v>
@@ -9648,7 +9647,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>44531</v>
@@ -9673,7 +9672,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
         <v>135</v>
       </c>
@@ -9691,7 +9690,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44562</v>
       </c>
@@ -9711,7 +9710,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A302,1)</f>
         <v>44593</v>
@@ -9732,7 +9731,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="18">EDATE(A303,1)</f>
         <v>44621</v>
@@ -9753,7 +9752,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="18"/>
         <v>44652</v>
@@ -9774,7 +9773,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="18"/>
         <v>44682</v>
@@ -9799,7 +9798,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="18"/>
         <v>44713</v>
@@ -9820,7 +9819,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="18"/>
         <v>44743</v>
@@ -9841,7 +9840,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="18"/>
         <v>44774</v>
@@ -9868,7 +9867,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>44805</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>141</v>
@@ -9914,7 +9913,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>149</v>
@@ -9934,7 +9933,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>44835</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>44866</v>
       </c>
@@ -9978,7 +9977,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>44896</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="48" t="s">
         <v>136</v>
       </c>
@@ -10022,7 +10021,7 @@
       <c r="J316" s="12"/>
       <c r="K316" s="15"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44927</v>
       </c>
@@ -10046,7 +10045,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44958</v>
       </c>
@@ -10066,7 +10065,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44986</v>
       </c>
@@ -10086,7 +10085,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>45017</v>
       </c>
@@ -10106,7 +10105,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>45047</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>45078</v>
       </c>
@@ -10152,7 +10151,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>45108</v>
       </c>
@@ -10172,7 +10171,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>45139</v>
       </c>
@@ -10192,7 +10191,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>45170</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>45200</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>142</v>
@@ -10264,7 +10263,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>151</v>
@@ -10286,7 +10285,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>45231</v>
       </c>
@@ -10306,22 +10305,24 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>45261</v>
       </c>
       <c r="B330" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C330" s="13"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D330" s="39">
         <v>4</v>
       </c>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
@@ -10330,7 +10331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10346,7 +10347,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>152</v>
       </c>
@@ -10364,11 +10365,13 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>45292</v>
       </c>
-      <c r="B333" s="20"/>
+      <c r="B333" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
       <c r="E333" s="9"/>
@@ -10380,9 +10383,11 @@
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K333" s="49">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>45323</v>
       </c>
@@ -10400,7 +10405,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>45352</v>
       </c>
@@ -10418,7 +10423,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>45383</v>
       </c>
@@ -10436,7 +10441,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>45413</v>
       </c>
@@ -10454,7 +10459,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>45444</v>
       </c>
@@ -10472,7 +10477,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>45474</v>
       </c>
@@ -10490,7 +10495,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>45505</v>
       </c>
@@ -10508,7 +10513,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>45536</v>
       </c>
@@ -10526,7 +10531,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>45566</v>
       </c>
@@ -10544,7 +10549,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>45597</v>
       </c>
@@ -10562,7 +10567,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10578,7 +10583,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10594,7 +10599,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -10610,7 +10615,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10626,7 +10631,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -10642,7 +10647,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -10658,7 +10663,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -10674,7 +10679,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -10690,7 +10695,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -10706,7 +10711,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -10722,7 +10727,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10738,7 +10743,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -10754,7 +10759,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10770,7 +10775,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10786,7 +10791,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10802,7 +10807,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10818,7 +10823,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10834,7 +10839,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10850,7 +10855,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10866,7 +10871,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10882,7 +10887,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10898,7 +10903,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10914,7 +10919,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10930,7 +10935,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10946,7 +10951,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10962,7 +10967,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10978,7 +10983,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10994,7 +10999,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11010,7 +11015,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11026,7 +11031,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11042,7 +11047,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11058,7 +11063,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11074,7 +11079,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11090,7 +11095,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11106,7 +11111,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11122,7 +11127,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11138,7 +11143,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11154,7 +11159,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11170,7 +11175,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11186,7 +11191,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11202,7 +11207,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11218,7 +11223,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11234,7 +11239,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11250,7 +11255,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11266,7 +11271,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11282,7 +11287,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11298,7 +11303,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11314,7 +11319,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11330,7 +11335,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11346,7 +11351,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11362,7 +11367,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11378,7 +11383,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11394,7 +11399,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11410,7 +11415,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11426,7 +11431,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11442,7 +11447,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="41"/>
       <c r="B399" s="15"/>
       <c r="C399" s="42"/>
@@ -11473,10 +11478,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11499,7 +11504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11507,21 +11512,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -11534,7 +11539,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11563,7 +11568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11591,17 +11596,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11622,7 +11627,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11649,7 +11654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11675,7 +11680,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11727,7 +11732,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11753,7 +11758,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11779,7 +11784,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11805,7 +11810,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11831,7 +11836,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11851,7 +11856,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11871,7 +11876,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11891,7 +11896,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11933,7 +11938,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11954,7 +11959,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11975,7 +11980,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11996,7 +12001,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12017,7 +12022,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12038,7 +12043,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12059,7 +12064,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12080,7 +12085,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12101,7 +12106,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12122,7 +12127,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12143,7 +12148,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12164,7 +12169,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12206,7 +12211,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12227,7 +12232,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12269,7 +12274,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12290,7 +12295,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12311,7 +12316,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12320,7 +12325,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12329,7 +12334,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12338,7 +12343,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12347,7 +12352,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12356,7 +12361,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12365,7 +12370,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12374,7 +12379,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12383,7 +12388,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12392,7 +12397,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12401,7 +12406,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12410,7 +12415,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12419,7 +12424,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12428,7 +12433,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12437,7 +12442,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12446,7 +12451,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12455,7 +12460,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12464,7 +12469,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12473,7 +12478,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12482,7 +12487,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12491,7 +12496,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12500,7 +12505,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12509,7 +12514,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12518,7 +12523,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12527,7 +12532,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12536,7 +12541,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12545,7 +12550,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12554,7 +12559,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12563,7 +12568,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12572,7 +12577,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TICC/NAVARRO, RITA.xlsx
+++ b/REGULAR/TICC/NAVARRO, RITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\TICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6E280-E198-4078-946E-D10A48401A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
   <si>
     <t>PERIOD</t>
   </si>
@@ -504,7 +505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1392,7 +1393,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1436,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1500,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1560,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1626,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1689,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1787,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1846,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1911,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1954,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2029,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2215,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2281,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2339,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2405,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2461,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2536,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2579,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2645,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2701,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2799,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2862,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2911,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2927,25 +2928,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K399" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K399" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2957,13 +2958,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2972,14 +2973,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3283,7 +3284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3293,7 +3294,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3301,34 +3302,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A325" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A325" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K333" sqref="K333"/>
+      <selection pane="bottomLeft" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3349,7 +3350,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3391,7 +3392,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3399,7 +3400,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3412,7 +3413,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3429,7 +3430,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3473,7 +3474,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.24399999999997</v>
+        <v>114.49399999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3483,12 +3484,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.375</v>
+        <v>246.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3510,7 +3511,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37880</v>
       </c>
@@ -3530,7 +3531,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37895</v>
       </c>
@@ -3550,7 +3551,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>37926</v>
       </c>
@@ -3570,7 +3571,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>37956</v>
       </c>
@@ -3590,7 +3591,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3608,7 +3609,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>37987</v>
       </c>
@@ -3628,7 +3629,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>38018</v>
@@ -3649,7 +3650,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" ref="A18:A27" si="0">EDATE(A17,1)</f>
         <v>38047</v>
@@ -3670,7 +3671,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>38078</v>
@@ -3691,7 +3692,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -3712,7 +3713,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -3733,7 +3734,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -3754,7 +3755,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>38200</v>
@@ -3775,7 +3776,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -3796,7 +3797,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3817,7 +3818,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -3838,7 +3839,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -3863,7 +3864,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3881,7 +3882,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>38353</v>
       </c>
@@ -3901,7 +3902,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>38384</v>
@@ -3922,7 +3923,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A41" si="1">EDATE(A30,1)</f>
         <v>38412</v>
@@ -3943,7 +3944,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -3964,7 +3965,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -3985,7 +3986,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -4006,7 +4007,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -4027,7 +4028,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -4052,7 +4053,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -4077,7 +4078,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -4100,7 +4101,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4122,7 +4123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>38657</v>
@@ -4143,7 +4144,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -4164,7 +4165,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>52</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>38718</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4222,7 +4223,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>38749</v>
@@ -4243,7 +4244,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" ref="A46:A55" si="2">EDATE(A45,1)</f>
         <v>38777</v>
@@ -4264,7 +4265,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -4285,7 +4286,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -4306,7 +4307,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -4327,7 +4328,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -4348,7 +4349,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -4369,7 +4370,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -4394,7 +4395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4412,7 +4413,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>38991</v>
@@ -4433,7 +4434,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -4454,7 +4455,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>39052</v>
@@ -4479,7 +4480,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>57</v>
       </c>
@@ -4497,7 +4498,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>39083</v>
       </c>
@@ -4517,7 +4518,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>39114</v>
@@ -4538,7 +4539,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A69" si="3">EDATE(A59,1)</f>
         <v>39142</v>
@@ -4559,7 +4560,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>39173</v>
@@ -4580,7 +4581,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>39203</v>
@@ -4605,7 +4606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4623,7 +4624,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>39234</v>
@@ -4644,7 +4645,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39264</v>
@@ -4665,7 +4666,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -4686,7 +4687,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -4707,7 +4708,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>39356</v>
@@ -4728,7 +4729,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -4749,7 +4750,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A69,1)</f>
         <v>39417</v>
@@ -4772,7 +4773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>46</v>
@@ -4794,7 +4795,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>58</v>
       </c>
@@ -4812,7 +4813,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>39448</v>
       </c>
@@ -4832,7 +4833,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>39479</v>
@@ -4853,7 +4854,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" ref="A75:A85" si="4">EDATE(A74,1)</f>
         <v>39508</v>
@@ -4874,7 +4875,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>39539</v>
@@ -4895,7 +4896,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>39569</v>
@@ -4916,7 +4917,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>39600</v>
@@ -4937,7 +4938,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39630</v>
@@ -4958,7 +4959,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39661</v>
@@ -4979,7 +4980,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39692</v>
@@ -5004,7 +5005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5022,7 +5023,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39722</v>
@@ -5043,7 +5044,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A83,1)</f>
         <v>39753</v>
@@ -5064,7 +5065,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>39783</v>
@@ -5085,7 +5086,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>64</v>
       </c>
@@ -5103,7 +5104,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>39814</v>
       </c>
@@ -5123,7 +5124,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A87,1)</f>
         <v>39845</v>
@@ -5148,7 +5149,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -5166,7 +5167,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>39873</v>
@@ -5187,7 +5188,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A104" si="5">EDATE(A90,1)</f>
         <v>39904</v>
@@ -5208,7 +5209,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39934</v>
@@ -5229,7 +5230,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39965</v>
@@ -5252,7 +5253,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>67</v>
@@ -5272,7 +5273,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5290,7 +5291,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A93,1)</f>
         <v>39995</v>
@@ -5315,7 +5316,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>68</v>
@@ -5337,7 +5338,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f>EDATE(A96,1)</f>
         <v>40026</v>
@@ -5362,7 +5363,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>69</v>
@@ -5384,7 +5385,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>40057</v>
@@ -5409,7 +5410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>67</v>
@@ -5431,7 +5432,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
@@ -5449,7 +5450,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>40087</v>
@@ -5470,7 +5471,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>40118</v>
@@ -5491,7 +5492,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A104,1)</f>
         <v>40148</v>
@@ -5516,7 +5517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>74</v>
@@ -5538,7 +5539,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>75</v>
       </c>
@@ -5556,7 +5557,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>40179</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>76</v>
@@ -5598,7 +5599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>78</v>
@@ -5620,7 +5621,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A108,1)</f>
         <v>40210</v>
@@ -5645,7 +5646,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>79</v>
@@ -5667,7 +5668,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>40238</v>
@@ -5692,7 +5693,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5710,7 +5711,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40269</v>
@@ -5735,7 +5736,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" ref="A116:A122" si="6">EDATE(A115,1)</f>
         <v>40299</v>
@@ -5762,7 +5763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -5783,7 +5784,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>40360</v>
@@ -5804,7 +5805,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -5829,7 +5830,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -5850,7 +5851,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -5871,7 +5872,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -5892,7 +5893,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>40513</v>
@@ -5913,7 +5914,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>84</v>
       </c>
@@ -5931,7 +5932,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>40544</v>
       </c>
@@ -5951,7 +5952,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A125,1)</f>
         <v>40575</v>
@@ -5976,7 +5977,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" ref="A127:A137" si="7">EDATE(A126,1)</f>
         <v>40603</v>
@@ -6001,7 +6002,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>40634</v>
@@ -6022,7 +6023,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40664</v>
@@ -6043,7 +6044,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>40695</v>
@@ -6064,7 +6065,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>40725</v>
@@ -6085,7 +6086,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A131,1)</f>
         <v>40756</v>
@@ -6106,7 +6107,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40787</v>
@@ -6127,7 +6128,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>40817</v>
@@ -6150,7 +6151,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6168,7 +6169,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>40848</v>
@@ -6189,7 +6190,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>40878</v>
@@ -6214,7 +6215,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>66</v>
@@ -6234,7 +6235,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>138</v>
@@ -6254,7 +6255,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>87</v>
       </c>
@@ -6272,7 +6273,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>40909</v>
       </c>
@@ -6294,7 +6295,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6312,7 +6313,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>40940</v>
@@ -6333,7 +6334,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A155" si="8">EDATE(A143,1)</f>
         <v>40969</v>
@@ -6358,7 +6359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6376,7 +6377,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>41000</v>
@@ -6397,7 +6398,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -6418,7 +6419,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>41061</v>
@@ -6439,7 +6440,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -6460,7 +6461,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="8"/>
         <v>41122</v>
@@ -6485,7 +6486,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -6510,7 +6511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6528,7 +6529,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>41183</v>
@@ -6549,7 +6550,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="8"/>
         <v>41214</v>
@@ -6570,7 +6571,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="8"/>
         <v>41244</v>
@@ -6595,7 +6596,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="48" t="s">
         <v>96</v>
       </c>
@@ -6613,7 +6614,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>41275</v>
       </c>
@@ -6635,7 +6636,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -6653,7 +6654,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>41306</v>
@@ -6674,7 +6675,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" ref="A160:A168" si="9">EDATE(A159,1)</f>
         <v>41334</v>
@@ -6695,7 +6696,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>41365</v>
@@ -6716,7 +6717,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="9"/>
         <v>41395</v>
@@ -6737,7 +6738,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="9"/>
         <v>41426</v>
@@ -6758,7 +6759,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="9"/>
         <v>41456</v>
@@ -6783,7 +6784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6801,7 +6802,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>41487</v>
@@ -6822,7 +6823,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>41518</v>
@@ -6843,7 +6844,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>41548</v>
@@ -6868,7 +6869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>66</v>
@@ -6886,7 +6887,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6904,7 +6905,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A168,1)</f>
         <v>41579</v>
@@ -6925,7 +6926,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>41609</v>
@@ -6950,7 +6951,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="54" t="s">
         <v>97</v>
       </c>
@@ -6968,7 +6969,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>41640</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7010,7 +7011,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>41671</v>
@@ -7035,7 +7036,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" ref="A177:A187" si="10">EDATE(A176,1)</f>
         <v>41699</v>
@@ -7062,7 +7063,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -7083,7 +7084,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -7104,7 +7105,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -7125,7 +7126,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -7146,7 +7147,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -7167,7 +7168,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -7190,7 +7191,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -7208,7 +7209,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>41913</v>
@@ -7229,7 +7230,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A185,1)</f>
         <v>41944</v>
@@ -7250,7 +7251,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -7277,7 +7278,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="48" t="s">
         <v>102</v>
       </c>
@@ -7295,7 +7296,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>42005</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A189,1)</f>
         <v>42036</v>
@@ -7342,7 +7343,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" ref="A191:A200" si="11">EDATE(A190,1)</f>
         <v>42064</v>
@@ -7363,7 +7364,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="11"/>
         <v>42095</v>
@@ -7384,7 +7385,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="11"/>
         <v>42125</v>
@@ -7405,7 +7406,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="11"/>
         <v>42156</v>
@@ -7426,7 +7427,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="11"/>
         <v>42186</v>
@@ -7447,7 +7448,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>42217</v>
@@ -7472,7 +7473,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7490,7 +7491,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>42248</v>
@@ -7511,7 +7512,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>42278</v>
@@ -7538,7 +7539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>42309</v>
@@ -7559,7 +7560,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>42339</v>
@@ -7580,7 +7581,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="48" t="s">
         <v>103</v>
       </c>
@@ -7598,7 +7599,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>42370</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>42401</v>
@@ -7645,7 +7646,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A214" si="12">EDATE(A204,1)</f>
         <v>42430</v>
@@ -7666,7 +7667,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="12"/>
         <v>42461</v>
@@ -7687,7 +7688,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>42491</v>
@@ -7708,7 +7709,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="12"/>
         <v>42522</v>
@@ -7735,7 +7736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="12"/>
         <v>42552</v>
@@ -7756,7 +7757,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="12"/>
         <v>42583</v>
@@ -7777,7 +7778,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="12"/>
         <v>42614</v>
@@ -7798,7 +7799,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="12"/>
         <v>42644</v>
@@ -7819,7 +7820,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="12"/>
         <v>42675</v>
@@ -7840,7 +7841,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="12"/>
         <v>42705</v>
@@ -7867,7 +7868,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="48" t="s">
         <v>104</v>
       </c>
@@ -7885,7 +7886,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42736</v>
       </c>
@@ -7909,7 +7910,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42767</v>
@@ -7930,7 +7931,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A229" si="13">EDATE(A217,1)</f>
         <v>42795</v>
@@ -7951,7 +7952,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="13"/>
         <v>42826</v>
@@ -7972,7 +7973,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="13"/>
         <v>42856</v>
@@ -7993,7 +7994,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="13"/>
         <v>42887</v>
@@ -8014,7 +8015,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="13"/>
         <v>42917</v>
@@ -8035,7 +8036,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>42948</v>
@@ -8056,7 +8057,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="13"/>
         <v>42979</v>
@@ -8081,7 +8082,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13">
@@ -8099,7 +8100,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>43009</v>
@@ -8124,7 +8125,7 @@
         <v>11232</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8142,7 +8143,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>43040</v>
@@ -8163,7 +8164,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" si="13"/>
         <v>43070</v>
@@ -8188,7 +8189,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>115</v>
@@ -8210,7 +8211,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13">
@@ -8228,7 +8229,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="48" t="s">
         <v>116</v>
       </c>
@@ -8246,7 +8247,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>43101</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>66</v>
@@ -8290,7 +8291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13">
@@ -8308,7 +8309,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41">
         <f>EDATE(A233,1)</f>
         <v>43132</v>
@@ -8329,7 +8330,7 @@
       <c r="J236" s="12"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41">
         <f t="shared" ref="A237:A252" si="14">EDATE(A236,1)</f>
         <v>43160</v>
@@ -8354,7 +8355,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>76</v>
@@ -8374,7 +8375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13">
@@ -8392,7 +8393,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="41">
         <f>EDATE(A237,1)</f>
         <v>43191</v>
@@ -8417,7 +8418,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8435,7 +8436,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41">
         <f>EDATE(A240,1)</f>
         <v>43221</v>
@@ -8460,7 +8461,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>120</v>
@@ -8482,7 +8483,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8500,7 +8501,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41">
         <f>EDATE(A242,1)</f>
         <v>43252</v>
@@ -8525,7 +8526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13">
@@ -8543,7 +8544,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41">
         <f>EDATE(A245,1)</f>
         <v>43282</v>
@@ -8564,7 +8565,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41">
         <f t="shared" si="14"/>
         <v>43313</v>
@@ -8585,7 +8586,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41">
         <f t="shared" si="14"/>
         <v>43344</v>
@@ -8606,7 +8607,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
         <f t="shared" si="14"/>
         <v>43374</v>
@@ -8627,7 +8628,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41">
         <f t="shared" si="14"/>
         <v>43405</v>
@@ -8648,7 +8649,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
         <f t="shared" si="14"/>
         <v>43435</v>
@@ -8669,7 +8670,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="54" t="s">
         <v>123</v>
       </c>
@@ -8687,7 +8688,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>43466</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -8729,7 +8730,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>43497</v>
@@ -8750,7 +8751,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" ref="A257:A270" si="15">EDATE(A256,1)</f>
         <v>43525</v>
@@ -8771,7 +8772,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="15"/>
         <v>43556</v>
@@ -8792,7 +8793,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="15"/>
         <v>43586</v>
@@ -8817,7 +8818,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13">
@@ -8835,7 +8836,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>43617</v>
@@ -8858,7 +8859,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>125</v>
@@ -8880,7 +8881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8898,7 +8899,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>43647</v>
@@ -8919,7 +8920,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="15"/>
         <v>43678</v>
@@ -8940,7 +8941,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43709</v>
@@ -8961,7 +8962,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43739</v>
@@ -8984,7 +8985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -9002,7 +9003,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f>EDATE(A267,1)</f>
         <v>43770</v>
@@ -9023,7 +9024,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="15"/>
         <v>43800</v>
@@ -9048,7 +9049,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="48" t="s">
         <v>129</v>
       </c>
@@ -9066,7 +9067,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>43831</v>
       </c>
@@ -9086,7 +9087,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f>EDATE(A272,1)</f>
         <v>43862</v>
@@ -9109,7 +9110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13">
@@ -9127,7 +9128,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43891</v>
@@ -9148,7 +9149,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" ref="A276:A283" si="16">EDATE(A275,1)</f>
         <v>43922</v>
@@ -9169,7 +9170,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>43952</v>
@@ -9190,7 +9191,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="16"/>
         <v>43983</v>
@@ -9211,7 +9212,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f t="shared" si="16"/>
         <v>44013</v>
@@ -9232,7 +9233,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f t="shared" si="16"/>
         <v>44044</v>
@@ -9253,7 +9254,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>44075</v>
@@ -9274,7 +9275,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" si="16"/>
         <v>44105</v>
@@ -9295,7 +9296,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>44136</v>
@@ -9316,7 +9317,7 @@
       <c r="J283" s="12"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A283,1)</f>
         <v>44166</v>
@@ -9341,7 +9342,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9359,7 +9360,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="48" t="s">
         <v>133</v>
       </c>
@@ -9377,7 +9378,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>44197</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -9417,7 +9418,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>44228</v>
@@ -9440,7 +9441,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13">
@@ -9458,7 +9459,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>44256</v>
@@ -9479,7 +9480,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" ref="A292:A300" si="17">EDATE(A291,1)</f>
         <v>44287</v>
@@ -9500,7 +9501,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="17"/>
         <v>44317</v>
@@ -9521,7 +9522,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="17"/>
         <v>44348</v>
@@ -9542,7 +9543,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" si="17"/>
         <v>44378</v>
@@ -9563,7 +9564,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="17"/>
         <v>44409</v>
@@ -9584,7 +9585,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="17"/>
         <v>44440</v>
@@ -9605,7 +9606,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f t="shared" si="17"/>
         <v>44470</v>
@@ -9626,7 +9627,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A298,1)</f>
         <v>44501</v>
@@ -9647,7 +9648,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>44531</v>
@@ -9672,7 +9673,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="48" t="s">
         <v>135</v>
       </c>
@@ -9690,7 +9691,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>44562</v>
       </c>
@@ -9710,7 +9711,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A302,1)</f>
         <v>44593</v>
@@ -9731,7 +9732,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="18">EDATE(A303,1)</f>
         <v>44621</v>
@@ -9752,7 +9753,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="18"/>
         <v>44652</v>
@@ -9773,7 +9774,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f t="shared" si="18"/>
         <v>44682</v>
@@ -9798,7 +9799,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="18"/>
         <v>44713</v>
@@ -9819,7 +9820,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="18"/>
         <v>44743</v>
@@ -9840,7 +9841,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="18"/>
         <v>44774</v>
@@ -9867,7 +9868,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>44805</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>141</v>
@@ -9913,7 +9914,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>149</v>
@@ -9933,7 +9934,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>44835</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>44866</v>
       </c>
@@ -9977,7 +9978,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>44896</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="48" t="s">
         <v>136</v>
       </c>
@@ -10021,7 +10022,7 @@
       <c r="J316" s="12"/>
       <c r="K316" s="15"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>44927</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>44958</v>
       </c>
@@ -10065,7 +10066,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>44986</v>
       </c>
@@ -10085,7 +10086,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>45017</v>
       </c>
@@ -10105,7 +10106,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>45047</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>45078</v>
       </c>
@@ -10151,7 +10152,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>45108</v>
       </c>
@@ -10171,7 +10172,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>45139</v>
       </c>
@@ -10191,7 +10192,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>45170</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>45200</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>142</v>
@@ -10263,7 +10264,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>151</v>
@@ -10285,7 +10286,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>45231</v>
       </c>
@@ -10305,7 +10306,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>45261</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10347,7 +10348,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="48" t="s">
         <v>152</v>
       </c>
@@ -10365,20 +10366,22 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>45292</v>
       </c>
       <c r="B333" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C333" s="13"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D333" s="39"/>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
@@ -10387,11 +10390,13 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>45323</v>
       </c>
-      <c r="B334" s="20"/>
+      <c r="B334" s="20" t="s">
+        <v>151</v>
+      </c>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
       <c r="E334" s="9"/>
@@ -10403,9 +10408,11 @@
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
-      <c r="K334" s="20"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K334" s="49">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>45352</v>
       </c>
@@ -10423,7 +10430,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>45383</v>
       </c>
@@ -10441,7 +10448,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>45413</v>
       </c>
@@ -10459,7 +10466,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>45444</v>
       </c>
@@ -10477,7 +10484,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>45474</v>
       </c>
@@ -10495,7 +10502,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>45505</v>
       </c>
@@ -10513,7 +10520,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>45536</v>
       </c>
@@ -10531,7 +10538,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>45566</v>
       </c>
@@ -10549,7 +10556,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>45597</v>
       </c>
@@ -10567,7 +10574,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10583,7 +10590,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10599,7 +10606,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -10615,7 +10622,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10631,7 +10638,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -10647,7 +10654,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -10663,7 +10670,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -10679,7 +10686,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -10695,7 +10702,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -10711,7 +10718,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -10727,7 +10734,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10743,7 +10750,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -10759,7 +10766,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10775,7 +10782,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10791,7 +10798,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10807,7 +10814,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10823,7 +10830,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10839,7 +10846,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10855,7 +10862,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10871,7 +10878,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10887,7 +10894,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10903,7 +10910,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10919,7 +10926,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10935,7 +10942,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10951,7 +10958,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10967,7 +10974,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10983,7 +10990,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10999,7 +11006,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11015,7 +11022,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11031,7 +11038,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11047,7 +11054,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11063,7 +11070,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11079,7 +11086,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11095,7 +11102,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11111,7 +11118,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11127,7 +11134,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11143,7 +11150,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11159,7 +11166,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11175,7 +11182,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11191,7 +11198,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11207,7 +11214,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11223,7 +11230,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11239,7 +11246,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11255,7 +11262,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11271,7 +11278,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11287,7 +11294,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11303,7 +11310,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11319,7 +11326,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11335,7 +11342,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11351,7 +11358,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11367,7 +11374,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11383,7 +11390,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11399,7 +11406,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11415,7 +11422,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11431,7 +11438,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11447,7 +11454,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="41"/>
       <c r="B399" s="15"/>
       <c r="C399" s="42"/>
@@ -11478,10 +11485,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11504,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11512,21 +11519,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -11539,7 +11546,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11568,7 +11575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11596,17 +11603,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11627,7 +11634,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11654,7 +11661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11680,7 +11687,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11706,7 +11713,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11732,7 +11739,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11758,7 +11765,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11784,7 +11791,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11810,7 +11817,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11836,7 +11843,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11856,7 +11863,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11876,7 +11883,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11896,7 +11903,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11917,7 +11924,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11938,7 +11945,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11959,7 +11966,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11980,7 +11987,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12001,7 +12008,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12022,7 +12029,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12043,7 +12050,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12064,7 +12071,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12085,7 +12092,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12106,7 +12113,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12127,7 +12134,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12148,7 +12155,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12169,7 +12176,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12190,7 +12197,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12211,7 +12218,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12232,7 +12239,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12253,7 +12260,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12274,7 +12281,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12295,7 +12302,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12316,7 +12323,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12325,7 +12332,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12334,7 +12341,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12343,7 +12350,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12352,7 +12359,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12361,7 +12368,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12370,7 +12377,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12379,7 +12386,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12388,7 +12395,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12397,7 +12404,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12406,7 +12413,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12415,7 +12422,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12424,7 +12431,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12433,7 +12440,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12442,7 +12449,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12451,7 +12458,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12460,7 +12467,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12469,7 +12476,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12478,7 +12485,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12487,7 +12494,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12496,7 +12503,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12505,7 +12512,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12514,7 +12521,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12523,7 +12530,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12532,7 +12539,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12541,7 +12548,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12550,7 +12557,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12559,7 +12566,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12568,7 +12575,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12577,7 +12584,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
